--- a/src/main/resources/script/db/data_init/2018-07-18-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-07-18-data-init.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangzhe/work/choerodon/testManager/test-manager-service/src/main/resources/script/db/data_init/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03C5E22-960A-F549-9A3D-5E2CEA262E98}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA873CFC-5E21-A940-AF4B-557234949A4A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>test_status</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>project_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>通过</t>
   </si>
   <si>
@@ -48,16 +44,6 @@
     <t>CASE_STEP</t>
   </si>
   <si>
-    <t>gray</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>red</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>未执行</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -70,23 +56,31 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>gray</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>green</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>#status_name</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>#status_color</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>#status_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_color</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#project_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgba(0,0,0,0.18)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgba(0,191,165,1)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgba(244,67,54,1)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +446,7 @@
   <dimension ref="D7:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,27 +465,27 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -499,13 +493,13 @@
     </row>
     <row r="9" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -513,13 +507,13 @@
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -527,13 +521,13 @@
     </row>
     <row r="11" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -541,13 +535,13 @@
     </row>
     <row r="12" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -555,13 +549,13 @@
     </row>
     <row r="13" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H13">
         <v>0</v>

--- a/src/main/resources/script/db/data_init/2018-07-18-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-07-18-data-init.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangzhe/work/choerodon/testManager/test-manager-service/src/main/resources/script/db/data_init/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA873CFC-5E21-A940-AF4B-557234949A4A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEC16A8-4284-9648-A862-5D33C1ADFC47}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>test_status</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -82,6 +82,9 @@
   <si>
     <t>rgba(244,67,54,1)</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*ID</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D7:H13"/>
+  <dimension ref="D7:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,104 +463,125 @@
     <col min="10" max="1025" width="9.6640625"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>4</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>4</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>4</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/script/db/data_init/2018-07-18-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-07-18-data-init.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangzhe/work/choerodon/testManager/test-manager-service/src/main/resources/script/db/data_init/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEC16A8-4284-9648-A862-5D33C1ADFC47}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2538AB7A-A93D-CE44-B96C-C8088B9441B5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>*ID</t>
+    <t>*status_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -449,7 +450,7 @@
   <dimension ref="D7:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,7 +468,7 @@
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
